--- a/results/I3_N5_M3_T15_C200_DepCentral_s1_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C200_DepCentral_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.4228060669644</v>
+        <v>174.9328060669644</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05100011825561523</v>
+        <v>0.03500008583068848</v>
       </c>
     </row>
     <row r="5">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139.49</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.507502297930266</v>
+        <v>6.249453373173366</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9.483894208462594</v>
       </c>
     </row>
     <row r="5">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>119.2360000000063</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>43.19899999999971</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>126.0459999999997</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>196.7560000000063</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>99.32400000000037</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>196.7560000000064</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>126.0459999999997</v>
+        <v>105.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>99.32400000000052</v>
+        <v>58.2</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.206</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.743</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
